--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_VienThong368.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_VienThong368.xlsx
@@ -12,21 +12,21 @@
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
+    <sheet name="TG102E" sheetId="45" r:id="rId1"/>
     <sheet name="TongThang" sheetId="25" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -223,6 +223,78 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>SF,NCFW</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520.CAR01A10</t>
+  </si>
+  <si>
+    <t>device.protrack365.com/8841</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị chập module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Lỗi main</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A11</t>
+  </si>
+  <si>
+    <t>Chập module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Lỗi moution</t>
+  </si>
+  <si>
+    <t>Thay moution</t>
+  </si>
+  <si>
+    <t>IMEI mới: 862549041574677</t>
+  </si>
+  <si>
+    <t>IMEI mới: 862549041574792</t>
+  </si>
+  <si>
+    <t>IMEI mới: 860906041143592</t>
   </si>
 </sst>
 </file>
@@ -589,21 +661,12 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,6 +729,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -989,8 +1061,8 @@
     <col min="8" max="8" width="37" style="19" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
     <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" style="25" customWidth="1"/>
     <col min="13" max="13" width="58" style="19" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
@@ -1006,41 +1078,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1085,576 +1157,809 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="57">
         <v>44868</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="79">
         <v>860906041184877</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="66" t="s">
+      <c r="H6" s="78"/>
+      <c r="I6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="80"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="57">
         <v>44868</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D7" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="79">
         <v>860906041210334</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="F7" s="78"/>
+      <c r="G7" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="67"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="80"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="56"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="57">
         <v>44868</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D8" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="79">
         <v>860906041143048</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="67"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="80"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="56"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="57">
         <v>44868</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="79">
         <v>860906041134625</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="67"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="79"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="80"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="56"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="57">
         <v>44868</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D10" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="79">
         <v>860906041212967</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="67"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="80"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="57">
         <v>44868</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="79">
         <v>860906041197374</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58" t="s">
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="67"/>
+      <c r="H11" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="L11" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="80"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="56"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="57">
         <v>44868</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D12" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="59">
-        <v>860906041157121</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="79">
+        <v>861359030055675</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="66" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="80"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="56"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="57">
         <v>44868</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="79">
         <v>860906041582373</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="67"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="80"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="57">
         <v>44868</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D14" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="79">
         <v>860906041194033</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="67"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="80"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="56"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="57">
         <v>44868</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D15" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="79">
         <v>860906041582688</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58" t="s">
+      <c r="F15" s="78"/>
+      <c r="G15" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="H15" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="80"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="57">
         <v>44868</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D16" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="79">
         <v>860906041213395</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58" t="s">
+      <c r="F16" s="78"/>
+      <c r="G16" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="80"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="57">
         <v>44868</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="79">
         <v>860906041249530</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58" t="s">
+      <c r="F17" s="78"/>
+      <c r="G17" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="80"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="57">
         <v>44868</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="57">
+        <v>44869</v>
+      </c>
+      <c r="D18" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="79">
         <v>860906041223733</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="80"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -1683,7 +1988,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1719,7 +2024,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1751,7 +2056,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1864,7 +2169,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -1996,7 +2301,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2060,7 +2365,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2124,7 +2429,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -2188,7 +2493,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2220,7 +2525,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2252,7 +2557,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2338,7 +2643,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -2605,7 +2910,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -3378,41 +3683,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3457,58 +3762,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3533,23 +3838,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,7 +3880,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3606,7 +3911,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3635,7 +3940,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3969,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3693,7 +3998,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3722,7 +4027,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +4056,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3782,7 +4087,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3811,7 +4116,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3840,7 +4145,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +4174,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
